--- a/app/config/tables/notesSubform/forms/notesSubform/notesSubform.xlsx
+++ b/app/config/tables/notesSubform/forms/notesSubform/notesSubform.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>clause</t>
   </si>
@@ -82,13 +82,25 @@
     <t>Note</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>time_taken</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>time_input_type.handlebars</t>
+  </si>
+  <si>
     <t>textarea</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>Notes and comments (255 characters)</t>
+    <t>Notes and comments (600 characters)</t>
   </si>
   <si>
     <t>true</t>
@@ -172,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -191,6 +203,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -384,51 +411,86 @@
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>255.0</v>
-      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -447,50 +509,50 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>27</v>
+      <c r="A1" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="15">
-        <v>2.0160101002E10</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="20">
+        <v>2.0160101007E10</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="14"/>
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
+      <c r="C5" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -509,19 +571,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>37</v>
+      <c r="A2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -534,20 +596,26 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="5">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="3"/>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="3"/>
     </row>
     <row r="14">
       <c r="B14" s="3"/>
     </row>
-    <row r="17">
-      <c r="B17" s="3"/>
+    <row r="15">
+      <c r="B15" s="3"/>
     </row>
     <row r="18">
       <c r="B18" s="3"/>
@@ -556,13 +624,16 @@
       <c r="B19" s="3"/>
     </row>
     <row r="20">
-      <c r="B20" s="14"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21">
-      <c r="B21" s="4"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22">
       <c r="B22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/app/config/tables/notesSubform/forms/notesSubform/notesSubform.xlsx
+++ b/app/config/tables/notesSubform/forms/notesSubform/notesSubform.xlsx
@@ -14,45 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+  <si>
+    <t>branch_label</t>
+  </si>
   <si>
     <t>clause</t>
   </si>
   <si>
+    <t>setting_name</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>display.text</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>comments</t>
   </si>
   <si>
     <t>do section survey</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>display.title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>notesSubform</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>hideInBackHistory</t>
+  </si>
+  <si>
+    <t>form_version</t>
+  </si>
+  <si>
     <t>goto _finalize</t>
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
   <si>
-    <t>branch_label</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>values_list</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>hideInContents</t>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Notes Subform</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
   <si>
     <t>display.new_instance_text</t>
@@ -73,6 +103,9 @@
     <t>inputAttributes.rows</t>
   </si>
   <si>
+    <t>time_taken</t>
+  </si>
+  <si>
     <t>inputAttributes.maxlength</t>
   </si>
   <si>
@@ -85,9 +118,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>time_taken</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -103,50 +133,23 @@
     <t>Notes and comments (600 characters)</t>
   </si>
   <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
     <t>end screen</t>
-  </si>
-  <si>
-    <t>setting_name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>notesSubform</t>
-  </si>
-  <si>
-    <t>form_version</t>
-  </si>
-  <si>
-    <t>table_id</t>
-  </si>
-  <si>
-    <t>survey</t>
-  </si>
-  <si>
-    <t>Notes Subform</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -160,17 +163,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,30 +198,45 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -228,6 +257,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -236,18 +268,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,19 +277,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -286,34 +306,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -333,6 +353,7 @@
     <col customWidth="1" min="5" max="5" width="13.57"/>
     <col customWidth="1" min="6" max="6" width="18.0"/>
     <col customWidth="1" min="7" max="7" width="32.71"/>
+    <col customWidth="1" min="9" max="9" width="16.14"/>
     <col customWidth="1" min="11" max="11" width="26.57"/>
     <col customWidth="1" min="15" max="15" width="17.43"/>
     <col customWidth="1" min="16" max="16" width="22.14"/>
@@ -340,157 +361,165 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="7"/>
+      <c r="K3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="C4" s="7"/>
+      <c r="D4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="22">
         <v>12.0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="22">
         <v>600.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -509,50 +538,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>31</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="20">
+        <v>16</v>
+      </c>
+      <c r="B3" s="8">
         <v>2.0160101007E10</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19"/>
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="19" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -571,63 +608,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="6">
-      <c r="B6" s="3"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="8">
-      <c r="B8" s="3"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="14">
-      <c r="B14" s="3"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15">
-      <c r="B15" s="3"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="18">
-      <c r="B18" s="3"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19">
-      <c r="B19" s="3"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20">
-      <c r="B20" s="3"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21">
-      <c r="B21" s="19"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22">
       <c r="B22" s="4"/>
